--- a/data/pca/factorExposure/factorExposure_2013-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006185856575259498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001796801323217701</v>
+      </c>
+      <c r="C2">
+        <v>-0.03167577182952466</v>
+      </c>
+      <c r="D2">
+        <v>0.005561913160682028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005366452918461204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006439759759627458</v>
+      </c>
+      <c r="C4">
+        <v>-0.0844409206270826</v>
+      </c>
+      <c r="D4">
+        <v>0.07981498249957782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001379937731609583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01446135476914561</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144399140348296</v>
+      </c>
+      <c r="D6">
+        <v>0.03274506686183026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001722478544324308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005144259468713539</v>
+      </c>
+      <c r="C7">
+        <v>-0.05789491272227246</v>
+      </c>
+      <c r="D7">
+        <v>0.03134813081093643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000604002142553638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00592450382606871</v>
+      </c>
+      <c r="C8">
+        <v>-0.03860893457066214</v>
+      </c>
+      <c r="D8">
+        <v>0.04098909788580928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003236674774521555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004584616895599036</v>
+      </c>
+      <c r="C9">
+        <v>-0.07049756665480167</v>
+      </c>
+      <c r="D9">
+        <v>0.0722672620505898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00243125670450405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005447576910591457</v>
+      </c>
+      <c r="C10">
+        <v>-0.05847371397886451</v>
+      </c>
+      <c r="D10">
+        <v>-0.1970821054726783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00250937751339898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005831398211627124</v>
+      </c>
+      <c r="C11">
+        <v>-0.0793729800185399</v>
+      </c>
+      <c r="D11">
+        <v>0.06063684323260803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004735235387276703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004171463911628165</v>
+      </c>
+      <c r="C12">
+        <v>-0.06373999967699379</v>
+      </c>
+      <c r="D12">
+        <v>0.04730375346527411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002407880432402838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009048647037424071</v>
+      </c>
+      <c r="C13">
+        <v>-0.06814901634441038</v>
+      </c>
+      <c r="D13">
+        <v>0.05809041170455898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007627943029670218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001666268292878455</v>
+      </c>
+      <c r="C14">
+        <v>-0.04521464332921228</v>
+      </c>
+      <c r="D14">
+        <v>0.00998514070092627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006642440546962438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006087410338782453</v>
+      </c>
+      <c r="C15">
+        <v>-0.04171639669249418</v>
+      </c>
+      <c r="D15">
+        <v>0.02869375882110086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008000815132124002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005167303069266738</v>
+      </c>
+      <c r="C16">
+        <v>-0.06499003786452189</v>
+      </c>
+      <c r="D16">
+        <v>0.04819141656817799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001118840179534071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00909383762154725</v>
+      </c>
+      <c r="C20">
+        <v>-0.06558975644857426</v>
+      </c>
+      <c r="D20">
+        <v>0.04191924044395409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005945130473658662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.010092048000865</v>
+      </c>
+      <c r="C21">
+        <v>-0.02170148917474233</v>
+      </c>
+      <c r="D21">
+        <v>0.03603899368602993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01635641452152986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006540757860697067</v>
+      </c>
+      <c r="C22">
+        <v>-0.0941883834458237</v>
+      </c>
+      <c r="D22">
+        <v>0.1116053144573976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01665704714654827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006356856132896114</v>
+      </c>
+      <c r="C23">
+        <v>-0.09499596167598513</v>
+      </c>
+      <c r="D23">
+        <v>0.1116482810282371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001344795807297448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005609436966506734</v>
+      </c>
+      <c r="C24">
+        <v>-0.07625773127453535</v>
+      </c>
+      <c r="D24">
+        <v>0.06198344746339621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.0039066863315357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003168268743154391</v>
+      </c>
+      <c r="C25">
+        <v>-0.07843439784247301</v>
+      </c>
+      <c r="D25">
+        <v>0.06698280344753255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004606926584387974</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003691483769880433</v>
+      </c>
+      <c r="C26">
+        <v>-0.04084178093652559</v>
+      </c>
+      <c r="D26">
+        <v>0.02165922963107232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004851127879929348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006716759613646994</v>
+      </c>
+      <c r="C28">
+        <v>-0.1078900077365423</v>
+      </c>
+      <c r="D28">
+        <v>-0.3172898806669942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001103486732324084</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003378946620847496</v>
+      </c>
+      <c r="C29">
+        <v>-0.05022443816169105</v>
+      </c>
+      <c r="D29">
+        <v>0.00727223397807517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003413054560677434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009765835329652672</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426924080300732</v>
+      </c>
+      <c r="D30">
+        <v>0.09587942070125478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00112316038919882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006359498417101376</v>
+      </c>
+      <c r="C31">
+        <v>-0.0447321598857009</v>
+      </c>
+      <c r="D31">
+        <v>0.03082609154174697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004178405632375751</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00426372923240232</v>
+      </c>
+      <c r="C32">
+        <v>-0.0404074380050793</v>
+      </c>
+      <c r="D32">
+        <v>0.0204755513287986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002795441773981349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008652206037144646</v>
+      </c>
+      <c r="C33">
+        <v>-0.0866618303840184</v>
+      </c>
+      <c r="D33">
+        <v>0.06552856067219581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004387846459913788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004070745125065626</v>
+      </c>
+      <c r="C34">
+        <v>-0.05791640699178936</v>
+      </c>
+      <c r="D34">
+        <v>0.05316534133768885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001450294080059042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005088842894647596</v>
+      </c>
+      <c r="C35">
+        <v>-0.04053537938911025</v>
+      </c>
+      <c r="D35">
+        <v>0.01605549883295256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003747326903389149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001061373978674654</v>
+      </c>
+      <c r="C36">
+        <v>-0.02456636342103094</v>
+      </c>
+      <c r="D36">
+        <v>0.02188124087350082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002351382075244227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009552011189780512</v>
+      </c>
+      <c r="C38">
+        <v>-0.0349571557568151</v>
+      </c>
+      <c r="D38">
+        <v>0.01506593327627358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01164330860547144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003460356853381337</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156428379563289</v>
+      </c>
+      <c r="D39">
+        <v>0.07285281488982556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009614512272497188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00285450848343091</v>
+      </c>
+      <c r="C40">
+        <v>-0.09070547997400785</v>
+      </c>
+      <c r="D40">
+        <v>0.009205032409759367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.686588056621566e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007307419941779037</v>
+      </c>
+      <c r="C41">
+        <v>-0.0378956563131297</v>
+      </c>
+      <c r="D41">
+        <v>0.03626771985126771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002842059663204446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004168592286627123</v>
+      </c>
+      <c r="C43">
+        <v>-0.05369135986084705</v>
+      </c>
+      <c r="D43">
+        <v>0.02409128416159908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004266605254844013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003587667929459764</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094480682986566</v>
+      </c>
+      <c r="D44">
+        <v>0.06780350130094598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.000941963413636005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002312003930386025</v>
+      </c>
+      <c r="C46">
+        <v>-0.03345573514888024</v>
+      </c>
+      <c r="D46">
+        <v>0.03274164282376471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0003707279639857374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002801342911207373</v>
+      </c>
+      <c r="C47">
+        <v>-0.03760498158383933</v>
+      </c>
+      <c r="D47">
+        <v>0.02169626442816703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003745822090576055</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00671878594149799</v>
+      </c>
+      <c r="C48">
+        <v>-0.03065040516051011</v>
+      </c>
+      <c r="D48">
+        <v>0.03237344159638356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01187294466260355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.0157641809892285</v>
+      </c>
+      <c r="C49">
+        <v>-0.1850648663803389</v>
+      </c>
+      <c r="D49">
+        <v>0.01295803062477876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001711466827443414</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003722507151564379</v>
+      </c>
+      <c r="C50">
+        <v>-0.04332821634813028</v>
+      </c>
+      <c r="D50">
+        <v>0.03639517721640852</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009528542550924592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004482339244073105</v>
+      </c>
+      <c r="C51">
+        <v>-0.02588230032197416</v>
+      </c>
+      <c r="D51">
+        <v>0.02020434071896515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008245674090901406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02127052529713289</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696305903317721</v>
+      </c>
+      <c r="D53">
+        <v>0.0268304868765423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001242528672286664</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008867384748180902</v>
+      </c>
+      <c r="C54">
+        <v>-0.05420033985524405</v>
+      </c>
+      <c r="D54">
+        <v>0.04442338723978645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003486258542136024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00974112593428964</v>
+      </c>
+      <c r="C55">
+        <v>-0.1081982418686718</v>
+      </c>
+      <c r="D55">
+        <v>0.03933927863144273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002821252495894052</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02042819008623249</v>
+      </c>
+      <c r="C56">
+        <v>-0.1735257152566049</v>
+      </c>
+      <c r="D56">
+        <v>0.0260748897069913</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007009581125045135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01989447818200798</v>
+      </c>
+      <c r="C58">
+        <v>-0.1119610227809436</v>
+      </c>
+      <c r="D58">
+        <v>0.04797734202646159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006592754657227255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01017611248315947</v>
+      </c>
+      <c r="C59">
+        <v>-0.165339806494993</v>
+      </c>
+      <c r="D59">
+        <v>-0.3210547124002274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003721609067816935</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02453164757528777</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225702008879542</v>
+      </c>
+      <c r="D60">
+        <v>0.03484882989152244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01367397666171468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001541158783155125</v>
+      </c>
+      <c r="C61">
+        <v>-0.09504256253480395</v>
+      </c>
+      <c r="D61">
+        <v>0.05601552996575247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1634211171711969</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.145064698439378</v>
+      </c>
+      <c r="C62">
+        <v>-0.09157093960911229</v>
+      </c>
+      <c r="D62">
+        <v>0.04434566834315414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004768978554021869</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006398617352570028</v>
+      </c>
+      <c r="C63">
+        <v>-0.05472073141447972</v>
+      </c>
+      <c r="D63">
+        <v>0.02743927551615392</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0008052548229144398</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01551271050539588</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046798938931306</v>
+      </c>
+      <c r="D64">
+        <v>0.05956315652113511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002768475543086311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01833641199048207</v>
+      </c>
+      <c r="C65">
+        <v>-0.1250078818970825</v>
+      </c>
+      <c r="D65">
+        <v>0.0187404418314887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007730227218053378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01338288060938876</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595275005323974</v>
+      </c>
+      <c r="D66">
+        <v>0.113619570783424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003593329812298609</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01578755675147256</v>
+      </c>
+      <c r="C67">
+        <v>-0.06579168387283986</v>
+      </c>
+      <c r="D67">
+        <v>0.02686860114182021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006043154020201279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008686795793630309</v>
+      </c>
+      <c r="C68">
+        <v>-0.08774117433584525</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594066519411232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002072151462861545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006314509502469303</v>
+      </c>
+      <c r="C69">
+        <v>-0.05038908490879185</v>
+      </c>
+      <c r="D69">
+        <v>0.03986912169420345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002086087786597594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00184993571231262</v>
+      </c>
+      <c r="C70">
+        <v>-0.002626802272327161</v>
+      </c>
+      <c r="D70">
+        <v>0.002891356581461726</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-3.780675505791648e-07</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005985358524179673</v>
+      </c>
+      <c r="C71">
+        <v>-0.09568867790629991</v>
+      </c>
+      <c r="D71">
+        <v>-0.3060476053770056</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003964397725878472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01650406457943925</v>
+      </c>
+      <c r="C72">
+        <v>-0.1536181985952302</v>
+      </c>
+      <c r="D72">
+        <v>0.02000720559298736</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01195700667854765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03140519645634252</v>
+      </c>
+      <c r="C73">
+        <v>-0.2798535156622512</v>
+      </c>
+      <c r="D73">
+        <v>0.05573122156582162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004496481196048419</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002174953097996497</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043756494298438</v>
+      </c>
+      <c r="D74">
+        <v>0.03626005797232362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002502262347393111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01124316624099735</v>
+      </c>
+      <c r="C75">
+        <v>-0.1248747818538662</v>
+      </c>
+      <c r="D75">
+        <v>0.02376997354125376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008916027862484402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02209905782306669</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484430488128124</v>
+      </c>
+      <c r="D76">
+        <v>0.06026232167405415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00146305178461557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.0237098044693631</v>
+      </c>
+      <c r="C77">
+        <v>-0.122420515641668</v>
+      </c>
+      <c r="D77">
+        <v>0.08822844817294043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003507485707562324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01495746282736667</v>
+      </c>
+      <c r="C78">
+        <v>-0.0957745879401655</v>
+      </c>
+      <c r="D78">
+        <v>0.07189820731945372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02357542588101956</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0380421357095601</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566555120465088</v>
+      </c>
+      <c r="D79">
+        <v>0.03417712427458171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006824191460783824</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048102981767262</v>
+      </c>
+      <c r="C80">
+        <v>-0.04024365899935804</v>
+      </c>
+      <c r="D80">
+        <v>0.02797063916691114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008885230606705917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01555486067698168</v>
+      </c>
+      <c r="C81">
+        <v>-0.1266831036066999</v>
+      </c>
+      <c r="D81">
+        <v>0.03869846626513184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005789000285825586</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02011512508934642</v>
+      </c>
+      <c r="C82">
+        <v>-0.140842508120494</v>
+      </c>
+      <c r="D82">
+        <v>0.03765697561774441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009367473600127574</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01009425366003009</v>
+      </c>
+      <c r="C83">
+        <v>-0.05582084847516126</v>
+      </c>
+      <c r="D83">
+        <v>0.05421397073194286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01311663133386354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01174559130901716</v>
+      </c>
+      <c r="C84">
+        <v>-0.03729175122950694</v>
+      </c>
+      <c r="D84">
+        <v>-0.008578056741217512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01407230419019275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02847795016297427</v>
+      </c>
+      <c r="C85">
+        <v>-0.1236925145168925</v>
+      </c>
+      <c r="D85">
+        <v>0.04447316850022266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001368722862600918</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.0060489688198117</v>
+      </c>
+      <c r="C86">
+        <v>-0.05082857528095782</v>
+      </c>
+      <c r="D86">
+        <v>0.0291286590929174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004140580245684367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01041908673827324</v>
+      </c>
+      <c r="C87">
+        <v>-0.1296155423040264</v>
+      </c>
+      <c r="D87">
+        <v>0.07311618127175826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01153501021373862</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002830663840542687</v>
+      </c>
+      <c r="C88">
+        <v>-0.06481335849168196</v>
+      </c>
+      <c r="D88">
+        <v>0.01793897263547941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01380240317250498</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009758578861245112</v>
+      </c>
+      <c r="C89">
+        <v>-0.1481058276389751</v>
+      </c>
+      <c r="D89">
+        <v>-0.3410811990708931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0006557978089073232</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007260676329425313</v>
+      </c>
+      <c r="C90">
+        <v>-0.1215416160907157</v>
+      </c>
+      <c r="D90">
+        <v>-0.319580137072958</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008179613536480281</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01060283426922417</v>
+      </c>
+      <c r="C91">
+        <v>-0.1004166636059612</v>
+      </c>
+      <c r="D91">
+        <v>0.02058058559618871</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007432457140065593</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001225822923401942</v>
+      </c>
+      <c r="C92">
+        <v>-0.1352375817651158</v>
+      </c>
+      <c r="D92">
+        <v>-0.3261842747043265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-4.860329078347055e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005150384410442901</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054553141142737</v>
+      </c>
+      <c r="D93">
+        <v>-0.300566978832915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003542130048857571</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02277838466841968</v>
+      </c>
+      <c r="C94">
+        <v>-0.1461014583365921</v>
+      </c>
+      <c r="D94">
+        <v>0.05327660738916296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004829623371062311</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01664649984943843</v>
+      </c>
+      <c r="C95">
+        <v>-0.1248382113945303</v>
+      </c>
+      <c r="D95">
+        <v>0.05560629396868877</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.00158567588608524</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03657755193462976</v>
+      </c>
+      <c r="C97">
+        <v>-0.2122971818365829</v>
+      </c>
+      <c r="D97">
+        <v>-0.004419320989593014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002622695083792806</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03709194686149466</v>
+      </c>
+      <c r="C98">
+        <v>-0.2482662944645977</v>
+      </c>
+      <c r="D98">
+        <v>0.05055797219178063</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848326461809165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819364516300547</v>
+      </c>
+      <c r="C99">
+        <v>0.1184501424203563</v>
+      </c>
+      <c r="D99">
+        <v>-0.02743094226589095</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009996569451549159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003416805274710452</v>
+      </c>
+      <c r="C101">
+        <v>-0.0503998927961745</v>
+      </c>
+      <c r="D101">
+        <v>0.007416792338331187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
